--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>502062.0109027691</v>
+        <v>497924.527767855</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33940801.53424101</v>
+        <v>33940801.534241</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4728157.246238486</v>
+        <v>4728157.246238485</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.54712558012721</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>23.32779925082563</v>
+        <v>20.54712558012672</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082563</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32779925082563</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20.54712558012721</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.32779925082563</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.32779925082563</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20.54712558012672</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="H3" t="n">
-        <v>23.32779925082563</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.54712558012722</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.32779925082563</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.32779925082563</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.7012471940365</v>
       </c>
       <c r="S4" t="n">
-        <v>23.32779925082563</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.8458783860902086</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>33.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>41.31500304752735</v>
+        <v>37.06736141641878</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="E7" t="n">
-        <v>41.31500304752735</v>
+        <v>17.84229754998328</v>
       </c>
       <c r="F7" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1211,70 +1211,70 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36.39025468426209</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>36.39025468426209</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>41.31500304752735</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>249.9293611790122</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.7440507805002</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>57.09228531058712</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>229.9357635245717</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>218.2536475273708</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9521134435527</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>128.1016063421159</v>
       </c>
       <c r="D16" t="n">
-        <v>74.42811009354939</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>204.9004856623724</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>237.2150796056181</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,10 +2004,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>90.34498607040695</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>322.8781331131937</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>202.9305789233641</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>113.8309561779911</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>87.92455141075448</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>308.6100300889046</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2371,10 +2371,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>54.91274684145272</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>229.2219564745735</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>93.89044247235765</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>296.0125566459569</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,13 +2563,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -2614,7 +2614,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>222.0215175726363</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2718,22 +2718,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>54.31661462074995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>239.0310207839273</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>181.9350240293737</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>213.7416271160864</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>128.0685837420157</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>108.2297720099069</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>116.6395830120784</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>170.8454278428345</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>29.71289223936122</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>53.19117033386413</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>298.4956188430021</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>168.3084566297464</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>22.68454702280377</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>75.0311791538914</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>116.6395830120784</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>112.3481984087759</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>22.68454702280377</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>87.92455141075537</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>172.3976083576599</v>
+        <v>291.0186881879525</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>204.7995670140367</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>72.5742247025962</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>133.2278366098973</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,10 +4146,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>176.6171877791065</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.17376000763971</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.55652470014373</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="C2" t="n">
-        <v>48.99309111345116</v>
+        <v>72.55652470014201</v>
       </c>
       <c r="D2" t="n">
-        <v>25.42965752675861</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="E2" t="n">
-        <v>1.866223940066051</v>
+        <v>25.42965752675801</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940066051</v>
+        <v>1.866223940066006</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940066051</v>
+        <v>1.866223940066006</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940066051</v>
+        <v>1.866223940066006</v>
       </c>
       <c r="I2" t="n">
-        <v>4.30078039474619</v>
+        <v>4.300780394746091</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922433</v>
+        <v>10.55978981922409</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570173</v>
+        <v>19.94042246570127</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593675</v>
+        <v>31.57792675593602</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258584172</v>
+        <v>44.52689258584068</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622060154</v>
+        <v>57.68538622060019</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895561</v>
+        <v>70.11057862895396</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249969</v>
+        <v>80.71519288249779</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691435</v>
+        <v>88.67881654691226</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="W2" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="X2" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.31119700330252</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="C3" t="n">
-        <v>72.55652470014373</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="D3" t="n">
-        <v>48.99309111345116</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="E3" t="n">
-        <v>25.42965752675861</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="F3" t="n">
-        <v>25.42965752675861</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="G3" t="n">
-        <v>25.42965752675861</v>
+        <v>25.42965752675801</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940066051</v>
+        <v>1.866223940066006</v>
       </c>
       <c r="I3" t="n">
-        <v>24.96074519838342</v>
+        <v>3.22472222740126</v>
       </c>
       <c r="J3" t="n">
-        <v>28.68856833309545</v>
+        <v>6.952545362113195</v>
       </c>
       <c r="K3" t="n">
-        <v>35.06001182925127</v>
+        <v>13.32398885826887</v>
       </c>
       <c r="L3" t="n">
-        <v>48.64273497307834</v>
+        <v>36.41851011658569</v>
       </c>
       <c r="M3" t="n">
-        <v>58.64024402522604</v>
+        <v>58.64024402522463</v>
       </c>
       <c r="N3" t="n">
-        <v>68.90235739346745</v>
+        <v>68.90235739346581</v>
       </c>
       <c r="O3" t="n">
-        <v>78.2901862588276</v>
+        <v>78.29018625882574</v>
       </c>
       <c r="P3" t="n">
-        <v>85.82474656889177</v>
+        <v>85.82474656888972</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.86140060132567</v>
+        <v>90.86140060132351</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="S3" t="n">
-        <v>93.31119700330252</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="T3" t="n">
-        <v>93.31119700330252</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="U3" t="n">
-        <v>93.31119700330252</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="V3" t="n">
-        <v>93.31119700330252</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="W3" t="n">
-        <v>93.31119700330252</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="X3" t="n">
-        <v>93.31119700330252</v>
+        <v>69.74776341660831</v>
       </c>
       <c r="Y3" t="n">
-        <v>93.31119700330252</v>
+        <v>69.74776341660831</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.74776341660997</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="C4" t="n">
-        <v>69.74776341660997</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="D4" t="n">
-        <v>69.74776341660997</v>
+        <v>25.42965752675801</v>
       </c>
       <c r="E4" t="n">
-        <v>69.74776341660997</v>
+        <v>25.42965752675801</v>
       </c>
       <c r="F4" t="n">
-        <v>48.99309111345116</v>
+        <v>25.42965752675801</v>
       </c>
       <c r="G4" t="n">
-        <v>25.42965752675861</v>
+        <v>25.42965752675801</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866223940066051</v>
+        <v>25.42965752675801</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940066051</v>
+        <v>1.866223940066006</v>
       </c>
       <c r="J4" t="n">
-        <v>24.96074519838342</v>
+        <v>23.28029818730269</v>
       </c>
       <c r="K4" t="n">
-        <v>48.0552664567008</v>
+        <v>46.37481944561952</v>
       </c>
       <c r="L4" t="n">
-        <v>53.70823065770284</v>
+        <v>51.29283006492527</v>
       </c>
       <c r="M4" t="n">
-        <v>76.80275191602021</v>
+        <v>56.47818270701216</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86480846211144</v>
+        <v>61.54023925310325</v>
       </c>
       <c r="O4" t="n">
-        <v>86.54043700002066</v>
+        <v>66.21586779101237</v>
       </c>
       <c r="P4" t="n">
-        <v>90.54124495399188</v>
+        <v>70.21667574498349</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700330252</v>
+        <v>93.31119700330031</v>
       </c>
       <c r="R4" t="n">
-        <v>93.31119700330252</v>
+        <v>73.41094731235434</v>
       </c>
       <c r="S4" t="n">
-        <v>69.74776341660997</v>
+        <v>49.84751372566234</v>
       </c>
       <c r="T4" t="n">
-        <v>69.74776341660997</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="U4" t="n">
-        <v>69.74776341660997</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="V4" t="n">
-        <v>69.74776341660997</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="W4" t="n">
-        <v>69.74776341660997</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="X4" t="n">
-        <v>69.74776341660997</v>
+        <v>48.99309111345001</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.74776341660997</v>
+        <v>48.99309111345001</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952742</v>
+        <v>7.922179662952684</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030271</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176024</v>
+        <v>35.56734164176019</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654182</v>
+        <v>56.13818908654176</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682888</v>
+        <v>79.02722044682882</v>
       </c>
       <c r="N5" t="n">
-        <v>102.286620264271</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529546</v>
+        <v>124.2498119529545</v>
       </c>
       <c r="P5" t="n">
-        <v>142.9948879228476</v>
+        <v>142.9948879228475</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.0716593183938</v>
+        <v>157.0716593183937</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.097182601319</v>
+        <v>145.0971826013189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="D6" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="E6" t="n">
-        <v>86.76985286506957</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="F6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.08590667097184</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802188</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I6" t="n">
         <v>31.77020107089877</v>
@@ -4652,46 +4652,46 @@
         <v>49.62200743646791</v>
       </c>
       <c r="L6" t="n">
-        <v>64.76566681697273</v>
+        <v>86.30252310133805</v>
       </c>
       <c r="M6" t="n">
-        <v>82.43760303375414</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N6" t="n">
-        <v>122.1141191020718</v>
+        <v>122.1141191020717</v>
       </c>
       <c r="O6" t="n">
-        <v>138.7083639341947</v>
+        <v>138.7083639341946</v>
       </c>
       <c r="P6" t="n">
-        <v>152.0267083864403</v>
+        <v>152.0267083864402</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.929668948206</v>
+        <v>160.9296689482059</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="Y6" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901093</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.06004933219679</v>
+        <v>63.06004933219675</v>
       </c>
       <c r="C7" t="n">
-        <v>63.06004933219679</v>
+        <v>63.06004933219675</v>
       </c>
       <c r="D7" t="n">
-        <v>63.06004933219679</v>
+        <v>21.32772302156307</v>
       </c>
       <c r="E7" t="n">
-        <v>21.3277230215631</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="J7" t="n">
-        <v>7.439194768028656</v>
+        <v>8.954119607211451</v>
       </c>
       <c r="K7" t="n">
-        <v>22.32142837675282</v>
+        <v>15.74754252345348</v>
       </c>
       <c r="L7" t="n">
-        <v>63.2232813938049</v>
+        <v>24.4407849625945</v>
       </c>
       <c r="M7" t="n">
-        <v>104.125134410857</v>
+        <v>33.60659023213764</v>
       </c>
       <c r="N7" t="n">
-        <v>145.026987427909</v>
+        <v>42.55445313895315</v>
       </c>
       <c r="O7" t="n">
-        <v>153.2917870759318</v>
+        <v>83.45630615600521</v>
       </c>
       <c r="P7" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="R7" t="n">
-        <v>146.5247019534642</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="S7" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="T7" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="U7" t="n">
-        <v>104.7923756428305</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="V7" t="n">
-        <v>104.7923756428305</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="W7" t="n">
-        <v>104.7923756428305</v>
+        <v>63.06004933219675</v>
       </c>
       <c r="X7" t="n">
-        <v>104.7923756428305</v>
+        <v>63.06004933219675</v>
       </c>
       <c r="Y7" t="n">
-        <v>104.7923756428305</v>
+        <v>63.06004933219675</v>
       </c>
     </row>
     <row r="8">
@@ -4801,19 +4801,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>7.922179662952712</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J8" t="n">
-        <v>18.98581709030268</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176021</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654179</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682885</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.79535956884203</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="C9" t="n">
         <v>40.06303325820834</v>
@@ -4871,7 +4871,7 @@
         <v>40.06303325820834</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4883,13 +4883,13 @@
         <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>59.89648401348967</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>71.1588637208333</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133811</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
         <v>103.9744593181195</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>123.5276858794757</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="Y9" t="n">
-        <v>123.5276858794757</v>
+        <v>40.06303325820834</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443588</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="C10" t="n">
-        <v>45.03752655443588</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085427</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>85.10890627790634</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>93.80214871704736</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>102.9679539865905</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>111.915816893406</v>
+        <v>72.99351841000691</v>
       </c>
       <c r="O10" t="n">
-        <v>120.1806165414288</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
-        <v>127.2525804285715</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>81.79535956884203</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="W10" t="n">
-        <v>81.79535956884203</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="X10" t="n">
-        <v>81.79535956884203</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.79535956884203</v>
+        <v>104.7923756428305</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1173.712709371907</v>
+        <v>1126.089232522485</v>
       </c>
       <c r="C11" t="n">
-        <v>735.5702365553307</v>
+        <v>687.9467597059088</v>
       </c>
       <c r="D11" t="n">
-        <v>299.6604517297752</v>
+        <v>687.9467597059088</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895474</v>
+        <v>687.9467597059088</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>260.0793301151165</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>260.0793301151165</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792597</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371907</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.712709371907</v>
+        <v>1552.388803007393</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,13 +5111,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.081764785142</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="C13" t="n">
-        <v>616.081764785142</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D13" t="n">
-        <v>616.081764785142</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>446.3237610358793</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>269.6167069976354</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>104.8755266101539</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L13" t="n">
-        <v>831.5726843696448</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M13" t="n">
-        <v>962.1770767081742</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5235,16 +5235,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1048.453461862091</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041292</v>
+        <v>1048.453461862091</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.88554354214</v>
+        <v>1530.944687111452</v>
       </c>
       <c r="C14" t="n">
-        <v>1514.88554354214</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D14" t="n">
-        <v>1514.88554354214</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E14" t="n">
-        <v>1081.110798700435</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>653.243369109643</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027048</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y14" t="n">
-        <v>1941.185114027048</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>986.0304051048374</v>
       </c>
       <c r="C16" t="n">
-        <v>299.093514772602</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>223.9136055871985</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1755.480362387979</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,7 +5463,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>1177.849023823825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>724.9602158863578</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C17" t="n">
-        <v>286.8177430697811</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D17" t="n">
-        <v>286.8177430697811</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E17" t="n">
-        <v>286.8177430697811</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>286.8177430697811</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1957.244257596361</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1552.388803007394</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X17" t="n">
-        <v>1133.246339586704</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y17" t="n">
-        <v>724.9602158863578</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="18">
@@ -5573,37 +5573,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>713.9024503859703</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>713.9024503859703</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D19" t="n">
-        <v>548.024457587493</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>378.2664538382302</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>201.5593997999864</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>201.5593997999864</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>289.492000983386</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>413.3628026016839</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>997.5438780199987</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1567.301592981533</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O19" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1378.532494457437</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.140739790849</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>905.7210691049575</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1525.741883262483</v>
+        <v>1634.49094569914</v>
       </c>
       <c r="C20" t="n">
-        <v>1087.599410445906</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D20" t="n">
-        <v>651.6896256203504</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E20" t="n">
-        <v>651.6896256203504</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
-        <v>651.6896256203504</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>252.1869342998276</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y20" t="n">
-        <v>1952.04145374739</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.0748969752688</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>699.0748969752688</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D22" t="n">
-        <v>699.0748969752688</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>136.019229741636</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>136.019229741636</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>393.4422361027639</v>
       </c>
       <c r="L22" t="n">
-        <v>744.992999204955</v>
+        <v>935.5229194890228</v>
       </c>
       <c r="M22" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,7 +5937,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>890.8935156942559</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1492.432620541498</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C23" t="n">
-        <v>1180.705317421392</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D23" t="n">
-        <v>744.7955325958366</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E23" t="n">
         <v>744.7955325958366</v>
@@ -6019,22 +6019,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="X23" t="n">
-        <v>1900.718744241844</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="Y23" t="n">
-        <v>1492.432620541498</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>864.4553742723976</v>
+        <v>863.3185618614019</v>
       </c>
       <c r="C25" t="n">
-        <v>691.8936627556226</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D25" t="n">
-        <v>526.0156699571453</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E25" t="n">
-        <v>356.2576662078826</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F25" t="n">
-        <v>179.5506121696388</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
         <v>179.5506121696388</v>
@@ -6147,25 +6147,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.17407462327</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N25" t="n">
-        <v>1708.047382044526</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O25" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.558898871144</v>
+        <v>1608.15639162759</v>
       </c>
       <c r="W25" t="n">
-        <v>1378.532494457436</v>
+        <v>1336.129987213881</v>
       </c>
       <c r="X25" t="n">
-        <v>1283.693663677277</v>
+        <v>1090.738232547294</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.273992991385</v>
+        <v>863.3185618614019</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1624.755105488881</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C26" t="n">
-        <v>1186.612632672305</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D26" t="n">
-        <v>750.7028478467491</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001348</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.05327704358</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>1624.755105488881</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W26" t="n">
-        <v>1624.755105488881</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X26" t="n">
-        <v>1624.755105488881</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.755105488881</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.081764785142</v>
+        <v>750.8436067979059</v>
       </c>
       <c r="C28" t="n">
-        <v>443.520053268367</v>
+        <v>578.2818952811308</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6547859746801</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E28" t="n">
-        <v>388.6547859746801</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F28" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6390,19 +6390,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092378</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434846</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>1974.45556341265</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1974.45556341265</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1687.500055283081</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1415.473650869372</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1170.081896202785</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041292</v>
+        <v>942.6622255168929</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1532.898990326701</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>1094.756517510124</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>658.8467326845689</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1892.189322681054</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1529.572372614881</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.185114027048</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y29" t="n">
-        <v>1532.898990326701</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>861.4735194517295</v>
+        <v>698.5773814739204</v>
       </c>
       <c r="C31" t="n">
-        <v>688.9118079349545</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="D31" t="n">
-        <v>523.0338151364772</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E31" t="n">
-        <v>353.2758113872144</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F31" t="n">
-        <v>176.5687573489706</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2251.004575417528</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2008.757351320935</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1730.370719369678</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1443.415211240108</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1171.3888068264</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.711808856609</v>
+        <v>925.997052159812</v>
       </c>
       <c r="Y31" t="n">
-        <v>1053.292138170717</v>
+        <v>698.5773814739204</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2187.756438212551</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.353309902451</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C34" t="n">
-        <v>389.7915983856759</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D34" t="n">
-        <v>223.9136055871985</v>
+        <v>556.0286924211466</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>386.2706886718839</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>209.5636346336401</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>209.5636346336401</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>77.21957401295597</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
@@ -6861,19 +6861,19 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L34" t="n">
-        <v>588.0160255186817</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M34" t="n">
-        <v>718.6204178572111</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N34" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
         <v>2274.089213540314</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2306.599122565046</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2064.351898468452</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.965266517195</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.009758387626</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W34" t="n">
-        <v>1226.983353973917</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5915993073299</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y34" t="n">
-        <v>754.1719286214382</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C35" t="n">
-        <v>1881.718734845957</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="D35" t="n">
-        <v>1445.808950020402</v>
+        <v>1050.492529761431</v>
       </c>
       <c r="E35" t="n">
-        <v>1144.298223916359</v>
+        <v>616.7177849197265</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>616.7177849197265</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>217.2150935992036</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
@@ -6937,10 +6937,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
         <v>805.4408022867025</v>
@@ -6967,22 +6967,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W35" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X35" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y35" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.655226289377</v>
+        <v>807.9003835041292</v>
       </c>
       <c r="C37" t="n">
-        <v>299.093514772602</v>
+        <v>635.3386719873541</v>
       </c>
       <c r="D37" t="n">
-        <v>133.2155219741246</v>
+        <v>469.4606791888768</v>
       </c>
       <c r="E37" t="n">
-        <v>110.3018381127067</v>
+        <v>299.7026754396141</v>
       </c>
       <c r="F37" t="n">
-        <v>110.3018381127067</v>
+        <v>122.9956214013703</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>122.9956214013703</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M37" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1842.060047552668</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
         <v>2173.32015736263</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>993.9670164069157</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>560.1922715652108</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>1900.718744241845</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="Y38" t="n">
-        <v>1900.718744241845</v>
+        <v>1429.876801232471</v>
       </c>
     </row>
     <row r="39">
@@ -7311,22 +7311,22 @@
         <v>471.655226289377</v>
       </c>
       <c r="C40" t="n">
-        <v>299.093514772602</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D40" t="n">
-        <v>133.2155219741246</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="E40" t="n">
-        <v>110.3018381127067</v>
+        <v>136.0192297416369</v>
       </c>
       <c r="F40" t="n">
-        <v>110.3018381127067</v>
+        <v>136.0192297416369</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3018381127067</v>
+        <v>136.0192297416369</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
@@ -7335,22 +7335,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>358.0754347909399</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1529.172552373862</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="C41" t="n">
-        <v>1091.030079557286</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="D41" t="n">
-        <v>655.1202947317302</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="E41" t="n">
-        <v>221.3455498900253</v>
+        <v>1010.389065222489</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>1955.47212285877</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X41" t="n">
-        <v>1955.47212285877</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y41" t="n">
-        <v>1955.47212285877</v>
+        <v>1444.163810064194</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896.8524940391952</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C43" t="n">
-        <v>724.2907825224202</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239429</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.9123158186961</v>
+        <v>289.492000983386</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M43" t="n">
-        <v>1329.17407462327</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N43" t="n">
-        <v>1898.931789584804</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2153.459327938609</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U43" t="n">
-        <v>1875.072695987352</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V43" t="n">
-        <v>1588.117187857782</v>
+        <v>1864.207109321325</v>
       </c>
       <c r="W43" t="n">
-        <v>1316.090783444074</v>
+        <v>1592.180704907616</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.090783444074</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y43" t="n">
-        <v>1088.671112758182</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2013.98275358362</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>2013.98275358362</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>1578.072968758064</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.298223916359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
         <v>716.4307943255671</v>
@@ -7648,13 +7648,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2013.98275358362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.98275358362</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.98275358362</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>2013.98275358362</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y44" t="n">
-        <v>2013.98275358362</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>864.4553742723976</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="C46" t="n">
-        <v>691.8936627556226</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D46" t="n">
-        <v>526.0156699571453</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E46" t="n">
-        <v>356.2576662078826</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>179.5506121696388</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
         <v>179.5506121696388</v>
@@ -7809,19 +7809,19 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>744.9929992049551</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>1329.17407462327</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N46" t="n">
-        <v>1898.931789584804</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
         <v>2274.089213540314</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2181.926377670862</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1903.539745719605</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1616.584237590035</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1344.557833176327</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1099.166078509739</v>
       </c>
       <c r="Y46" t="n">
-        <v>864.4553742723976</v>
+        <v>871.7464078238474</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.95557875856777</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8063,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.066193008365076</v>
+        <v>14.67406989168827</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>12.34770187524392</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.96545941697646</v>
+        <v>19.26803819366269</v>
       </c>
       <c r="K4" t="n">
-        <v>19.4457492216894</v>
+        <v>19.44574922168894</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7423773552486663</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.0900693093236</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.5298678878851</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>21.7544002872377</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.530227110285652</v>
       </c>
       <c r="K7" t="n">
-        <v>8.170515850992057</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>32.53395007869804</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>32.05661388637266</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>32.27675768710763</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>32.96672057477705</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>21.75440028723776</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>37.13925100285415</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778793</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>32.27675768710764</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.220189997955117</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.44562680252833</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>30.81754489126178</v>
+        <v>10.62967161639949</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P19" t="n">
-        <v>69.27619576520601</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,19 +9561,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>192.4544649334019</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>158.2045317475399</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>253.9135309266332</v>
+        <v>175.7179764032066</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>177.19208494646</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>263.871624324937</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10524,7 +10524,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>215.650735820404</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>69.27619576520601</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>177.19208494646</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>458.158265737157</v>
@@ -11232,13 +11232,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>158.2045317475398</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>158.2045317475395</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.489449199931478</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>10.43324883758529</v>
+        <v>13.2139225082842</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726474273</v>
+        <v>8.222887726474827</v>
       </c>
       <c r="E2" t="n">
-        <v>6.109198142462123</v>
+        <v>6.109198142462677</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>0.2609560440592453</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>179.5076362142755</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>56.28028516102847</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23421,7 +23421,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>73.92833470389013</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>13.00207359535</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>215.5074005610401</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>62.55555096376488</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23554,13 +23554,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.73448805949138</v>
       </c>
       <c r="D16" t="n">
-        <v>89.79110277694313</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>228.8605624260385</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,10 +23743,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>158.2925848016995</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>40.6756339440703</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>110.8829149752173</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>64.09375701816458</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>54.22946753377904</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>75.16921717285229</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>125.1510179995063</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>201.5672377222484</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>54.86399657370029</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>149.047394647564</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>126.0240181341018</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>136.9692629928754</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>109.9025982497426</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.7937310717000798</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>247.5019733639141</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>42.73835744761482</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>35.02518484159103</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>34.75250110090097</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>305.3969917679803</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24976,13 +24976,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>188.1453527226772</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>32.75144145875321</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>89.79110277694367</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>130.9413785502857</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>98.71587931178226</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3758766889663</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>55.98944086058586</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>305.3969917679803</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>311.2405568861084</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.3758766889663</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -25566,10 +25566,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>43.09606860372189</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>251.1911469372245</v>
+        <v>132.5700671069318</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>35.02518484159074</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>211.5117283456776</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>123.2521479538039</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>53.4861337707539</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>63.20756407652092</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.9717139713931</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>571476.3948494303</v>
+        <v>571476.3948494301</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>353342.1137666982</v>
+        <v>353342.1137666981</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353342.1137666982</v>
+        <v>353342.1137666981</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>353342.1137666981</v>
+        <v>353342.1137666982</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>353342.1137666981</v>
+        <v>353342.1137666983</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>353342.1137666981</v>
+        <v>353342.1137666983</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358148.8322192702</v>
+        <v>358148.8322192704</v>
       </c>
       <c r="C2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260256</v>
       </c>
       <c r="D2" t="n">
         <v>361899.4409260257</v>
@@ -26337,22 +26337,22 @@
         <v>212351.7212561034</v>
       </c>
       <c r="J2" t="n">
-        <v>212351.7212561035</v>
+        <v>212351.7212561034</v>
       </c>
       <c r="K2" t="n">
         <v>212351.7212561034</v>
       </c>
       <c r="L2" t="n">
+        <v>212351.7212561034</v>
+      </c>
+      <c r="M2" t="n">
+        <v>212351.7212561034</v>
+      </c>
+      <c r="N2" t="n">
         <v>212351.7212561035</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>212351.7212561035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>212351.7212561034</v>
-      </c>
-      <c r="O2" t="n">
-        <v>212351.7212561034</v>
       </c>
       <c r="P2" t="n">
         <v>212351.7212561035</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150169035</v>
+        <v>25672.80150168978</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088659</v>
+        <v>18763.31828088718</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707183051</v>
+        <v>6103.578707182876</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749528</v>
+        <v>4629.330666749697</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296181.1803608909</v>
+        <v>296181.180360891</v>
       </c>
       <c r="C4" t="n">
-        <v>294235.7031510526</v>
+        <v>294235.7031510527</v>
       </c>
       <c r="D4" t="n">
         <v>294235.7031510526</v>
@@ -26429,19 +26429,19 @@
         <v>15620.10484543461</v>
       </c>
       <c r="F4" t="n">
+        <v>15620.1048454346</v>
+      </c>
+      <c r="G4" t="n">
         <v>15620.10484543461</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15620.1048454346</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>15620.10484543461</v>
       </c>
-      <c r="I4" t="n">
-        <v>15620.1048454346</v>
-      </c>
       <c r="J4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="K4" t="n">
         <v>15620.10484543461</v>
@@ -26453,13 +26453,13 @@
         <v>15620.10484543461</v>
       </c>
       <c r="N4" t="n">
+        <v>15620.10484543461</v>
+      </c>
+      <c r="O4" t="n">
         <v>15620.1048454346</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>15620.10484543461</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15620.1048454346</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413293</v>
+        <v>35449.86995413289</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26478,22 +26478,22 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>844.9804025560225</v>
+        <v>831.0892591984104</v>
       </c>
       <c r="C6" t="n">
-        <v>12046.84968387635</v>
+        <v>12046.84968387559</v>
       </c>
       <c r="D6" t="n">
         <v>30810.16796476297</v>
       </c>
       <c r="E6" t="n">
-        <v>-361804.9743549507</v>
+        <v>-362358.8547981727</v>
       </c>
       <c r="F6" t="n">
-        <v>150680.535201031</v>
+        <v>150126.654757809</v>
       </c>
       <c r="G6" t="n">
-        <v>150680.535201031</v>
+        <v>150126.6547578091</v>
       </c>
       <c r="H6" t="n">
-        <v>150680.535201031</v>
+        <v>150126.654757809</v>
       </c>
       <c r="I6" t="n">
-        <v>150680.535201031</v>
+        <v>150126.6547578091</v>
       </c>
       <c r="J6" t="n">
-        <v>144576.956493848</v>
+        <v>144023.0760506262</v>
       </c>
       <c r="K6" t="n">
-        <v>146051.2045342815</v>
+        <v>145497.3240910593</v>
       </c>
       <c r="L6" t="n">
-        <v>150680.535201031</v>
+        <v>150126.6547578091</v>
       </c>
       <c r="M6" t="n">
-        <v>13925.63081791565</v>
+        <v>13371.75037469368</v>
       </c>
       <c r="N6" t="n">
-        <v>150680.535201031</v>
+        <v>150126.6547578091</v>
       </c>
       <c r="O6" t="n">
-        <v>150680.535201031</v>
+        <v>150126.6547578091</v>
       </c>
       <c r="P6" t="n">
-        <v>150680.5352010311</v>
+        <v>150126.6547578091</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.5293467744374</v>
+        <v>18.52934677443696</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26749,13 +26749,13 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082563</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.5293467744374</v>
+        <v>18.52934677443696</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613419</v>
+        <v>14.22375528613464</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082563</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670172</v>
+        <v>17.98720379670226</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082574</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670172</v>
+        <v>17.98720379670238</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082563</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670172</v>
+        <v>17.98720379670226</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379034</v>
+        <v>81.11791793379038</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27460,22 +27460,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>84.84477097159692</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>70.81158671408664</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>69.85141127549018</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>62.00287441987328</v>
       </c>
       <c r="G3" t="n">
-        <v>84.49138326039709</v>
+        <v>61.16358400957201</v>
       </c>
       <c r="H3" t="n">
-        <v>17.60557545265882</v>
+        <v>17.60557545265938</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.0805833309145</v>
+        <v>38.75278408008944</v>
       </c>
       <c r="T3" t="n">
         <v>128.7162112922732</v>
@@ -27542,22 +27542,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>140.8914136196674</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>154.3928579177341</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>140.5741493974544</v>
+        <v>163.90194864828</v>
       </c>
       <c r="H4" t="n">
-        <v>114.8782762477462</v>
+        <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>86.76851237028717</v>
+        <v>63.44071311946212</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403647</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.7388482597872</v>
+        <v>133.7388482597878</v>
       </c>
       <c r="T4" t="n">
-        <v>243.2778848592312</v>
+        <v>242.4320064731409</v>
       </c>
       <c r="U4" t="n">
         <v>275.6468481807266</v>
@@ -27703,16 +27703,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>56.11184910989704</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>41.23499695247266</v>
       </c>
       <c r="G6" t="n">
-        <v>43.14578572036749</v>
+        <v>43.14578572036751</v>
       </c>
       <c r="H6" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
-        <v>126.7454206642428</v>
+        <v>150.2181261617868</v>
       </c>
       <c r="F7" t="n">
-        <v>157.097685947878</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.8762992535017</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T7" t="n">
         <v>243.1682919906331</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6454491228296</v>
+        <v>234.3304460753022</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -27943,10 +27943,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>46.15974531573791</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.46078876789484</v>
+        <v>48.07053408363275</v>
       </c>
       <c r="H9" t="n">
         <v>40.6378963153706</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.5101778475351</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8762992535017</v>
+        <v>122.5612962059744</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>85.99716511640959</v>
+        <v>68.15486756642629</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28067,7 +28067,7 @@
         <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
         <v>242.7709500007465</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914528</v>
+        <v>0.07448983627914352</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937968</v>
+        <v>0.7628690357937787</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151751</v>
+        <v>2.871769413151683</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741897113</v>
+        <v>6.322231741896963</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593335</v>
+        <v>9.47538651159311</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862123</v>
+        <v>11.75505483862095</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455048</v>
+        <v>13.07976346455017</v>
       </c>
       <c r="N2" t="n">
-        <v>13.2914077118786</v>
+        <v>13.29140771187829</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237785</v>
+        <v>12.55069940237755</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923645</v>
+        <v>10.71173156923619</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489556</v>
+        <v>8.044064307489364</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169864</v>
+        <v>4.679172178169753</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144211025</v>
+        <v>1.697437144210985</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119587</v>
+        <v>0.3260792583119509</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331622</v>
+        <v>0.005959186902331479</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086536</v>
+        <v>0.03985557608086441</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651997</v>
+        <v>0.3849209584651906</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257864</v>
+        <v>1.372220492257832</v>
       </c>
       <c r="J3" t="n">
-        <v>3.76547791385053</v>
+        <v>3.76547791385044</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268509</v>
+        <v>6.435801511268356</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359137017</v>
+        <v>8.653729359136811</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206838</v>
+        <v>10.09849399206814</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903173</v>
+        <v>10.36577107903149</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555716</v>
+        <v>9.48265541955549</v>
       </c>
       <c r="P3" t="n">
-        <v>7.61066697986279</v>
+        <v>7.610666979862609</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690814</v>
+        <v>5.087529325690693</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178641</v>
+        <v>2.474541820178583</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862486</v>
+        <v>0.740299845186231</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312073</v>
+        <v>0.1606459404312034</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741143</v>
+        <v>0.002622077373741081</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062482</v>
+        <v>0.03341357615062403</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573737</v>
+        <v>0.2970770679573665</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784245</v>
+        <v>1.004837362784221</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849175</v>
+        <v>2.362339833849119</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136229</v>
+        <v>3.882050029136136</v>
       </c>
       <c r="L4" t="n">
-        <v>4.96768749424835</v>
+        <v>4.967687494248231</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941502034</v>
+        <v>5.237729941501909</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430395164</v>
+        <v>5.113188430395042</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999227</v>
+        <v>4.722857108999114</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526477</v>
+        <v>4.041220155526381</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362940048</v>
+        <v>2.797931362939981</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645367</v>
+        <v>1.502395887645331</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704342</v>
+        <v>0.5823075043704203</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981242</v>
+        <v>0.1427670980981208</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124992</v>
+        <v>0.001822558699124949</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32086,28 +32086,28 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32229,31 +32229,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32803,7 +32803,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33040,7 +33040,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33280,22 +33280,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,7 +33493,7 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I33" t="n">
         <v>34.56235976916781</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,19 +33730,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33754,22 +33754,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,7 +33967,7 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I39" t="n">
         <v>34.56235976916781</v>
@@ -33979,7 +33979,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33991,22 +33991,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,10 +34441,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34453,7 +34453,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34465,22 +34465,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,10 +34547,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020354</v>
+        <v>2.459147934020286</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741897113</v>
+        <v>6.322231741896971</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593328</v>
+        <v>9.475386511593108</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862123</v>
+        <v>11.75505483862096</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455048</v>
+        <v>13.07976346455017</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187861</v>
+        <v>13.29140771187829</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237784</v>
+        <v>12.55069940237755</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923645</v>
+        <v>10.71173156923619</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489549</v>
+        <v>8.044064307489364</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169878</v>
+        <v>4.67917217816975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.32779925082563</v>
+        <v>1.372220492257832</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850528</v>
+        <v>3.76547791385044</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268508</v>
+        <v>6.435801511268355</v>
       </c>
       <c r="L3" t="n">
-        <v>13.71992236750209</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206838</v>
+        <v>22.44619586731206</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903173</v>
+        <v>10.36577107903149</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555712</v>
+        <v>9.482655419555485</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862785</v>
+        <v>7.610666979862614</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690809</v>
+        <v>5.087529325690696</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178644</v>
+        <v>2.474541820178587</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082563</v>
+        <v>21.63037802751181</v>
       </c>
       <c r="K4" t="n">
-        <v>23.32779925082563</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="L4" t="n">
-        <v>5.710064849497016</v>
+        <v>4.967687494248231</v>
       </c>
       <c r="M4" t="n">
-        <v>23.32779925082563</v>
+        <v>5.237729941501911</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430395169</v>
+        <v>5.113188430395041</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999222</v>
+        <v>4.722857108999115</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526474</v>
+        <v>4.041220155526375</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362940048</v>
+        <v>23.32779925082508</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.17539134075754</v>
+        <v>11.17539134075756</v>
       </c>
       <c r="K5" t="n">
         <v>16.74901469844195</v>
       </c>
       <c r="L5" t="n">
-        <v>20.77863378260766</v>
+        <v>20.77863378260764</v>
       </c>
       <c r="M5" t="n">
         <v>23.12023369725966</v>
@@ -35020,13 +35020,13 @@
         <v>11.37614111852891</v>
       </c>
       <c r="L6" t="n">
-        <v>15.29662563687356</v>
+        <v>37.05102592411126</v>
       </c>
       <c r="M6" t="n">
         <v>17.85044062301152</v>
       </c>
       <c r="N6" t="n">
-        <v>40.07728895789658</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O6" t="n">
         <v>16.76186346679083</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.175752044673201</v>
+        <v>5.705979154958853</v>
       </c>
       <c r="K7" t="n">
-        <v>15.03255920073148</v>
+        <v>6.862043349739425</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>8.781052968829311</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N7" t="n">
+        <v>9.038245360419708</v>
+      </c>
+      <c r="O7" t="n">
+        <v>41.31500304752733</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O7" t="n">
-        <v>8.348282472750299</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7.143397865800722</v>
-      </c>
       <c r="Q7" t="n">
-        <v>4.945718411146316</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
         <v>20.77863378260766</v>
@@ -35187,7 +35187,7 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978146</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
         <v>18.93442017160913</v>
@@ -35251,7 +35251,7 @@
         <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>28.41038681069788</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35260,7 +35260,7 @@
         <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>17.85044062301152</v>
+        <v>39.60484091024928</v>
       </c>
       <c r="N9" t="n">
         <v>18.32288867065883</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>4.175752044673201</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.862043349739427</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.781052968829309</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.258389161154689</v>
+      </c>
+      <c r="N10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.781052968829314</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9.258389161154682</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.038245360419708</v>
-      </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>10.5684724707054</v>
       </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.39134521367464</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
         <v>547.5562458447059</v>
@@ -35579,7 +35579,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>159.6043244911502</v>
+        <v>139.4164512162879</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
@@ -35588,7 +35588,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P19" t="n">
-        <v>171.0631211972095</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>290.2323442945718</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>277.1599674523497</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N25" t="n">
-        <v>382.7003105265217</v>
+        <v>304.5047560030951</v>
       </c>
       <c r="O25" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,16 +36594,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36673,7 +36673,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36755,22 +36755,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654053</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409517</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712372</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L34" t="n">
-        <v>388.9936461616016</v>
+        <v>281.8524450409512</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37305,19 +37305,19 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766677</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -37326,7 +37326,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37405,10 +37405,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409512</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>334.606171525214</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
@@ -37542,31 +37542,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766676</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>167.0540751263759</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712372</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116994</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>277.1599674523497</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,16 +38016,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
-        <v>277.1599674523495</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>70.4719911420766</v>
